--- a/src/test/resources/tests/TestData.xlsx
+++ b/src/test/resources/tests/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RohitFulzele\Desktop\RCS\Automation_Testing\Testing\RCS_Job_Portal_Automation_E2E_Test\src\test\resources\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CC8646-9156-4844-97CD-776957638B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE5516B-6E30-4854-961D-B7C1C74D0FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="808" firstSheet="7" activeTab="7" xr2:uid="{CC144977-ADCD-4BF3-8A7D-A4E16E90E56F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="808" firstSheet="8" activeTab="13" xr2:uid="{CC144977-ADCD-4BF3-8A7D-A4E16E90E56F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2511,9 +2511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24591FB-9B7C-45FF-9BBF-C2C141C82519}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2849,11 +2847,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B23F6FD-072A-4251-BB9D-DEDB62EBFB98}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
@@ -4447,7 +4449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73355DD-98E2-4BB4-ACC6-F087FF44F469}">
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
